--- a/knowledge/public/feedback.xlsx
+++ b/knowledge/public/feedback.xlsx
@@ -397,7 +397,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:E21"/>
+  <dimension ref="A1:E22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -506,262 +506,279 @@
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>6/14/2022, 8:39:57 PM</v>
+        <v>6/24/2022, 10:37:45 AM</v>
       </c>
       <c r="B7" t="str">
-        <v>dev.jimynicanor@gmail.com</v>
+        <v>example@g.com</v>
       </c>
       <c r="C7" t="str">
-        <v>test feedback 10</v>
+        <v>test from feedbacck</v>
       </c>
       <c r="D7" t="str">
-        <v>jimy</v>
+        <v>somebody</v>
       </c>
       <c r="E7" t="str">
-        <v>http://localhost:3000/?q=wiki&amp;page=1</v>
+        <v>http://localhost:3000/</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="str">
-        <v>6/14/2022, 6:16:15 PM</v>
+        <v>6/14/2022, 8:39:57 PM</v>
       </c>
       <c r="B8" t="str">
         <v>dev.jimynicanor@gmail.com</v>
       </c>
       <c r="C8" t="str">
-        <v>test feedback</v>
+        <v>test feedback 10</v>
       </c>
       <c r="D8" t="str">
         <v>jimy</v>
       </c>
       <c r="E8" t="str">
-        <v>http://localhost:3000/data-science/FJfzAX7zbgQS8jU5XcEk</v>
+        <v>http://localhost:3000/?q=wiki&amp;page=1</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>6/14/2022, 9:59:15 PM</v>
+        <v>6/14/2022, 6:16:15 PM</v>
       </c>
       <c r="B9" t="str">
-        <v/>
+        <v>dev.jimynicanor@gmail.com</v>
       </c>
       <c r="C9" t="str">
-        <v/>
+        <v>test feedback</v>
       </c>
       <c r="D9" t="str">
-        <v/>
+        <v>jimy</v>
       </c>
       <c r="E9" t="str">
-        <v>http://localhost:3000/</v>
+        <v>http://localhost:3000/data-science/FJfzAX7zbgQS8jU5XcEk</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>6/14/2022, 6:23:57 PM</v>
+        <v>6/14/2022, 9:59:15 PM</v>
       </c>
       <c r="B10" t="str">
-        <v>dev.jimynicanor@gmail.com</v>
+        <v/>
       </c>
       <c r="C10" t="str">
-        <v>this is the second  feedback test</v>
+        <v/>
       </c>
       <c r="D10" t="str">
-        <v>jimy</v>
+        <v/>
       </c>
       <c r="E10" t="str">
-        <v>http://localhost:3000/data-science/FJfzAX7zbgQS8jU5XcEk</v>
+        <v>http://localhost:3000/</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>6/15/2022, 3:00:39 PM</v>
+        <v>6/14/2022, 6:23:57 PM</v>
       </c>
       <c r="B11" t="str">
         <v>dev.jimynicanor@gmail.com</v>
       </c>
       <c r="C11" t="str">
-        <v>other feedback</v>
+        <v>this is the second  feedback test</v>
       </c>
       <c r="D11" t="str">
-        <v>ee</v>
+        <v>jimy</v>
       </c>
       <c r="E11" t="str">
-        <v>http://localhost:3000/</v>
+        <v>http://localhost:3000/data-science/FJfzAX7zbgQS8jU5XcEk</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>6/20/2022, 6:31:06 PM</v>
+        <v>6/15/2022, 3:00:39 PM</v>
       </c>
       <c r="B12" t="str">
-        <v>example@g.com</v>
+        <v>dev.jimynicanor@gmail.com</v>
       </c>
       <c r="C12" t="str">
-        <v>dsds</v>
+        <v>other feedback</v>
       </c>
       <c r="D12" t="str">
-        <v>sdf</v>
+        <v>ee</v>
       </c>
       <c r="E12" t="str">
-        <v>http://localhost:3000/?q=</v>
+        <v>http://localhost:3000/</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="str">
-        <v>6/14/2022, 7:04:12 PM</v>
+        <v>6/20/2022, 6:31:06 PM</v>
       </c>
       <c r="B13" t="str">
-        <v>dev.jimynicanor@gmail.com</v>
+        <v>example@g.com</v>
       </c>
       <c r="C13" t="str">
-        <v>test feedback 5</v>
+        <v>dsds</v>
       </c>
       <c r="D13" t="str">
-        <v>jimy</v>
+        <v>sdf</v>
       </c>
       <c r="E13" t="str">
-        <v>http://localhost:3000/data-science/FJfzAX7zbgQS8jU5XcEk</v>
+        <v>http://localhost:3000/?q=</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="str">
-        <v>6/20/2022, 5:12:20 PM</v>
+        <v>6/14/2022, 7:04:12 PM</v>
       </c>
       <c r="B14" t="str">
-        <v>example@g.com</v>
+        <v>dev.jimynicanor@gmail.com</v>
       </c>
       <c r="C14" t="str">
-        <v>dsds</v>
+        <v>test feedback 5</v>
       </c>
       <c r="D14" t="str">
-        <v>sdf</v>
+        <v>jimy</v>
       </c>
       <c r="E14" t="str">
-        <v>http://localhost:3000/?q=College+readiness+and+engagement+gaps+between+domestic+and+international+students%3A+re-envisioning+educational+diversity+and+equity+for+global+campus&amp;page=1&amp;reference=&amp;label=</v>
+        <v>http://localhost:3000/data-science/FJfzAX7zbgQS8jU5XcEk</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="str">
-        <v>6/14/2022, 6:24:51 PM</v>
+        <v>6/20/2022, 5:12:20 PM</v>
       </c>
       <c r="B15" t="str">
-        <v>dev.jimynicanor@gmail.com</v>
+        <v>example@g.com</v>
       </c>
       <c r="C15" t="str">
-        <v>this is the 3 feedback test</v>
+        <v>dsds</v>
       </c>
       <c r="D15" t="str">
-        <v>jimy</v>
+        <v>sdf</v>
       </c>
       <c r="E15" t="str">
-        <v>http://localhost:3000/data-science/FJfzAX7zbgQS8jU5XcEk</v>
+        <v>http://localhost:3000/?q=College+readiness+and+engagement+gaps+between+domestic+and+international+students%3A+re-envisioning+educational+diversity+and+equity+for+global+campus&amp;page=1&amp;reference=&amp;label=</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="str">
-        <v>6/15/2022, 2:37:20 PM</v>
+        <v>6/14/2022, 6:24:51 PM</v>
       </c>
       <c r="B16" t="str">
         <v>dev.jimynicanor@gmail.com</v>
       </c>
       <c r="C16" t="str">
-        <v>feedback from mobile version</v>
+        <v>this is the 3 feedback test</v>
       </c>
       <c r="D16" t="str">
         <v>jimy</v>
       </c>
       <c r="E16" t="str">
-        <v>http://localhost:3000/</v>
+        <v>http://localhost:3000/data-science/FJfzAX7zbgQS8jU5XcEk</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="str">
-        <v>6/17/2022, 5:07:00 PM</v>
+        <v>6/15/2022, 2:37:20 PM</v>
       </c>
       <c r="B17" t="str">
         <v>dev.jimynicanor@gmail.com</v>
       </c>
       <c r="C17" t="str">
-        <v>dfsssd</v>
+        <v>feedback from mobile version</v>
       </c>
       <c r="D17" t="str">
-        <v>dsd</v>
+        <v>jimy</v>
       </c>
       <c r="E17" t="str">
-        <v>http://localhost:3000/?q=asd&amp;page=1</v>
+        <v>http://localhost:3000/</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="str">
-        <v>6/15/2022, 3:20:19 PM</v>
+        <v>6/17/2022, 5:07:00 PM</v>
       </c>
       <c r="B18" t="str">
         <v>dev.jimynicanor@gmail.com</v>
       </c>
       <c r="C18" t="str">
-        <v>final test</v>
+        <v>dfsssd</v>
       </c>
       <c r="D18" t="str">
-        <v>jimy</v>
+        <v>dsd</v>
       </c>
       <c r="E18" t="str">
-        <v>http://localhost:3000/</v>
+        <v>http://localhost:3000/?q=asd&amp;page=1</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="str">
-        <v>6/17/2022, 4:48:54 PM</v>
+        <v>6/15/2022, 3:20:19 PM</v>
       </c>
       <c r="B19" t="str">
         <v>dev.jimynicanor@gmail.com</v>
       </c>
       <c r="C19" t="str">
-        <v>eee</v>
+        <v>final test</v>
       </c>
       <c r="D19" t="str">
-        <v>ee</v>
+        <v>jimy</v>
       </c>
       <c r="E19" t="str">
-        <v>http://localhost:3000/?q=asd&amp;page=1</v>
+        <v>http://localhost:3000/</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="str">
-        <v>6/14/2022, 7:17:13 PM</v>
+        <v>6/17/2022, 4:48:54 PM</v>
       </c>
       <c r="B20" t="str">
         <v>dev.jimynicanor@gmail.com</v>
       </c>
       <c r="C20" t="str">
-        <v>test feedback 6</v>
+        <v>eee</v>
       </c>
       <c r="D20" t="str">
-        <v>jimy</v>
+        <v>ee</v>
       </c>
       <c r="E20" t="str">
-        <v>http://localhost:3000/data-science/FJfzAX7zbgQS8jU5XcEk</v>
+        <v>http://localhost:3000/?q=asd&amp;page=1</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="str">
+        <v>6/14/2022, 7:17:13 PM</v>
+      </c>
+      <c r="B21" t="str">
+        <v>dev.jimynicanor@gmail.com</v>
+      </c>
+      <c r="C21" t="str">
+        <v>test feedback 6</v>
+      </c>
+      <c r="D21" t="str">
+        <v>jimy</v>
+      </c>
+      <c r="E21" t="str">
+        <v>http://localhost:3000/data-science/FJfzAX7zbgQS8jU5XcEk</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="str">
         <v>6/17/2022, 5:09:03 PM</v>
       </c>
-      <c r="B21" t="str">
-        <v>dev.jimynicanor@gmail.com</v>
-      </c>
-      <c r="C21" t="str">
+      <c r="B22" t="str">
+        <v>dev.jimynicanor@gmail.com</v>
+      </c>
+      <c r="C22" t="str">
         <v>dfsssdsdfas final</v>
       </c>
-      <c r="D21" t="str">
+      <c r="D22" t="str">
         <v>dsd</v>
       </c>
-      <c r="E21" t="str">
+      <c r="E22" t="str">
         <v>http://localhost:3000/?q=asd&amp;page=1</v>
       </c>
     </row>
   </sheetData>
   <ignoredErrors>
-    <ignoredError numberStoredAsText="1" sqref="A1:E21"/>
+    <ignoredError numberStoredAsText="1" sqref="A1:E22"/>
   </ignoredErrors>
 </worksheet>
 </file>